--- a/data/erp/testsafedata.xlsx
+++ b/data/erp/testsafedata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1610FE7-D576-46B5-8FDA-CB6F12C43B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128DCD9A-861F-40F1-904D-686D2789D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="6375" xr2:uid="{2C4A2D74-2421-4D13-8088-2CD89F0A7E40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2C4A2D74-2421-4D13-8088-2CD89F0A7E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>rho</t>
+    <t>resistivity</t>
   </si>
 </sst>
 </file>
@@ -391,12 +391,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D46"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -438,7 +438,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -452,7 +452,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -466,7 +466,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -480,7 +480,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>120</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
@@ -606,7 +606,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>140</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>150</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>170</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>180</v>
       </c>
@@ -676,7 +676,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>190</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>210</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>220</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>230</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>240</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>250</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>260</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>270</v>
       </c>
@@ -802,7 +802,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>280</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>290</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>300</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>310</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>320</v>
       </c>
@@ -872,7 +872,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>330</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>340</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>350</v>
       </c>
@@ -914,7 +914,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>360</v>
       </c>
@@ -928,7 +928,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>370</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>380</v>
       </c>
@@ -956,7 +956,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>390</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>400</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>410</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>420</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>430</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>440</v>
       </c>

--- a/data/erp/testsafedata.xlsx
+++ b/data/erp/testsafedata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\watex\data\erp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128DCD9A-861F-40F1-904D-686D2789D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671BD04-E876-412E-AF90-B1E5ED8BD646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2C4A2D74-2421-4D13-8088-2CD89F0A7E40}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16410" windowHeight="9690" xr2:uid="{2C4A2D74-2421-4D13-8088-2CD89F0A7E40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testsafe" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -394,9 +394,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -438,7 +438,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -452,7 +452,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -466,7 +466,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -480,7 +480,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -522,7 +522,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -606,7 +606,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -676,7 +676,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270</v>
       </c>
@@ -802,7 +802,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
@@ -872,7 +872,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350</v>
       </c>
@@ -914,7 +914,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360</v>
       </c>
@@ -928,7 +928,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380</v>
       </c>
@@ -956,7 +956,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>430</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>440</v>
       </c>
